--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c206_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -940,10 +952,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -987,28 +999,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="2">
+      <c r="A30" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1033,28 +1045,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="2">
+      <c r="C32" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="2">
+      <c r="D32" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="2">
+      <c r="I32" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1461,10 +1473,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1508,28 +1520,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
+      <c r="C48" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D48" t="s" s="2">
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1554,28 +1566,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1982,10 +1994,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2029,28 +2041,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2075,28 +2087,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2474,10 +2486,10 @@
       <c r="I81">
         <f>((C81-C80)^2+(D81- D80)^2)^.5</f>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L81" t="n">
@@ -2521,28 +2533,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="2">
+      <c r="A83" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2567,28 +2579,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I85" t="s" s="2">
+      <c r="I85" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2966,10 +2978,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3013,28 +3025,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3059,28 +3071,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3487,10 +3499,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3534,28 +3546,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3580,28 +3592,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3950,10 +3962,10 @@
       <c r="I132">
         <f>((C132-C131)^2+(D132- D131)^2)^.5</f>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="J132" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K132" s="2" t="s">
+      <c r="K132" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L132" t="n">
@@ -3997,28 +4009,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="2">
+      <c r="A134" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4043,28 +4055,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="B136" t="s" s="2">
+      <c r="B136" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C136" t="s" s="2">
+      <c r="C136" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D136" t="s" s="2">
+      <c r="D136" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E136" t="s" s="2">
+      <c r="E136" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F136" t="s" s="2">
+      <c r="F136" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G136" t="s" s="2">
+      <c r="G136" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H136" t="s" s="2">
+      <c r="H136" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I136" t="s" s="2">
+      <c r="I136" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4297,10 +4309,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K144" s="2" t="s">
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4344,28 +4356,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4390,28 +4402,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4499,10 +4511,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
